--- a/Scheduler_Sheet.xlsx
+++ b/Scheduler_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\New Energy Automations_Mega\Py Scripts\Scheduler Script\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGAsync\Github\Scheduler_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A55B60-113B-4E0F-99A2-C94395E15DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29F629-7EDF-49E4-B9B6-63B8F033E2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOP" sheetId="8" r:id="rId1"/>
@@ -150,6 +150,30 @@
     <author>Prashant Kumar</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D820264E-5508-4BFF-861C-2F27DD9CC098}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Prashant Kumar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Case Sensitive</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1BCC011A-CC9A-46FA-8964-4E962D87A59D}">
       <text>
         <r>
@@ -460,7 +484,7 @@
     <t>Script which needs to run on certain days of a month should be added here.</t>
   </si>
   <si>
-    <t>Supports "Last Day" and "Last Day less n" [where n=no. of days] for scripts which needs to execute in the given fashion. This will adjust the date accordingly based on the month.</t>
+    <t>Supports "Last Day" and "Last Day Less n" [where n=no. of days] for scripts which needs to execute in the given fashion. This will adjust the date accordingly based on the month.</t>
   </si>
 </sst>
 </file>
@@ -850,9 +874,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1675,15 +1697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E28F36308D213945B6EF069ACF6D579D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="165a94404d78b5cf6059ccda9ea18dba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="565bb0e9-9edb-473d-8980-68cf1e94f611" xmlns:ns3="34ea03fd-567e-4207-bf13-698d8754a099" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="989b8e110efb1d0caa11c5af34ed967d" ns2:_="" ns3:_="">
     <xsd:import namespace="565bb0e9-9edb-473d-8980-68cf1e94f611"/>
@@ -1920,6 +1933,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1932,14 +1954,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF8BA5D-536C-4AEA-892B-EDB305A57C75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA1B70A-075D-4966-B199-D4E4DC0F0E9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1958,6 +1972,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF8BA5D-536C-4AEA-892B-EDB305A57C75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BDB6A60-2603-45CA-8023-5A0BADB174B8}">
   <ds:schemaRefs>
